--- a/biology/Médecine/André_Parent/André_Parent.xlsx
+++ b/biology/Médecine/André_Parent/André_Parent.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Parent</t>
+          <t>André_Parent</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">André Parent, né le 3 octobre 1944 à Montréal, est un neurobiologiste québécois.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Parent</t>
+          <t>André_Parent</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">André Parent obtient un baccalauréat en sciences de l'Université de Montréal en 1967, puis un doctorat en neuroanatomie de l'Université Laval en 1970 sous la direction du professeur Louis J. Poirier (1918-2014). Il poursuit par la suite des études postdoctorales de neuroanatomie à l'Institut Max-Planck pour la recherche sur le cerveau de Francfort, sous la direction du professeur Rolf Hassler (1914-1984).
 En 1981, il devient professeur titulaire au département d'anatomie de la faculté de médecine de l'Université Laval et il occupe présentement le même poste au département de psychiatrie et de neurosciences.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Parent</t>
+          <t>André_Parent</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Thèmes de recherche</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Neuromorphologie ; Anatomie chimique du système nerveux central ; Organisation anatomique et fonctionnelle des ganglions de la base chez le singe et l’homme ; Étude de la pathogénèse de certaines maladies neurodégénératives, principalement les maladies de Parkinson et de Huntington ; Évolution phylogénétique de l’encéphale ; Neurogenèse postnatale ; Histoire des neurosciences. 
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Parent</t>
+          <t>André_Parent</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>André Parent a publié au cours de sa carrière plus de 250 articles originaux dans des revues de calibre international, 350 résumés de communications, 45 chapitres de livre et trois volumes : 
 Comparative Neurobiology of the Basal Ganglia, New York, John Wiley &amp; Sons, 1986, 335 p.  (ISBN 0-471-80348-0)
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Parent</t>
+          <t>André_Parent</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +627,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1994 - Fellow de la Société royale du Canada (section III : Académie des sciences)
 1995 - Prix Léo-Pariseau décerné par l'Acfas
@@ -620,7 +640,7 @@
 2008 - Fellow de l'Académie canadienne des sciences de la santé
 2016 - Officier de l'ordre national du Québec
 2017 - Médaille Gloire de l'Escolle (Grands diplômés) décernée par l'Université Laval
-2017 - Officier de l'ordre du Canada[1]
+2017 - Officier de l'ordre du Canada
 2018 - Fellow de l'American Association of Anatomists
 2021 - Professeur émérite de l'Université Laval</t>
         </is>
